--- a/saareport.2012/bin/report/saa-report-listing-Nov-2017.xlsx
+++ b/saareport.2012/bin/report/saa-report-listing-Nov-2017.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
   <si>
     <t>SELECT
 CP.ENG_NAME,CP.THAI_NAME,CP.TH_ADDRESS1,CP.TH_ADDRESS2,CP.TH_ADDRESS3,CP.ADDRESS1,CP.ADDRESS2,CP.ADDRESS3,CP.TELEPHONE,CP.FAX,
@@ -1735,6 +1736,67 @@
   </si>
   <si>
     <t>รายงานวัตถุดิบคงเหลือ(Pre)</t>
+  </si>
+  <si>
+    <t>WH011</t>
+  </si>
+  <si>
+    <t>SELECT current_timestamp AS "CTIME",
+ cast(PL_REQ_HD.issue_by as varchar(10))  AS "ISSUE_BY" ,
+ PL_REQ_HD.update_user ,
+ pl_req_hd.update_date ,
+ PL_REQ_HD.DOC_NO,
+ PL_REQ_HD.DOC_DATE,
+ PL_REQ_HD.melt_no,
+ PL_REQ_HD.DESCS,
+ cast(PL_REQ_HD.remarks as varchar(255)) AS "REMARKS",
+ PL_REQ_HD.STATUS   ,
+ PL_REQ_DT.ITEM_CODE,
+ PL_REQ_DT.uom,
+ PL_REQ_DT.GROUP_ID,
+ PL_REQ_DT.LOT_NO,
+ PL_REQ_DT.PURCHASE_DATE,
+ PL_REQ_DT.QTY,
+ PL_REQ_DT.UNIT_COST,
+ PL_REQ_DT.TOTAL_COST,
+ PL_REQ_DT.ONHAND_QTY,
+ PL_REQ_DT.item_descs,
+ PL_REQ_DT.REF_NO,
+ PL_REQ_DT.REF_DATE
+FROM PL_REQ_DT
+   INNER JOIN PL_REQ_HD ON (PL_REQ_DT.DOC_NO = PL_REQ_HD.DOC_NO) AND (PL_REQ_DT.DOC_DATE = PL_REQ_HD.DOC_DATE)
+WHERE PL_REQ_HD.melt_no =  '08W11'
+union
+SELECT  current_timestamp AS "CTIME",
+ IC_STOCK_ADJUST_HD.update_user AS "ISSUE_BY"  ,
+ ic_stock_adjust_hd.update_user,
+ ic_stock_adjust_hd.update_date,
+ IC_STOCK_ADJUST_HD.DOC_NO,
+ IC_STOCK_ADJUST_HD.DOC_DATE,
+ IC_STOCK_ADJUST_HD.melt_no,
+ IC_STOCK_ADJUST_HD.DESCS,
+ IC_STOCK_ADJUST_HD.remarks,
+ IC_STOCK_ADJUST_HD.STATUS,
+ IC_STOCK_ADJUST_DT.ITEM_CODE,
+ IC_STOCK_ADJUST_DT.UOM_CD,
+ IC_STOCK_ADJUST_DT.GROUP_ID,
+ IC_STOCK_ADJUST_DT.LOT_NO,
+ IC_STOCK_ADJUST_DT.PURCHASE_DATE,
+case WHEN IC_STOCK_ADJUST_HD.mode ='O' THEN  IC_STOCK_ADJUST_DT.QTY ELSE
+IC_STOCK_ADJUST_DT.QTY*-1 END AS QTY,
+ IC_STOCK_ADJUST_DT.UNIT_COST,
+ IC_STOCK_ADJUST_DT.TOTAL_COST,
+ IC_STOCK_ADJUST_DT.ONHAND_QTY,
+ IC_STOCK_ADJUST_DT.STOCK_DESCS,
+ IC_STOCK_ADJUST_DT.REF_NO,
+ IC_STOCK_ADJUST_DT.REF_DATE
+FROM IC_STOCK_ADJUST_DT
+   INNER JOIN IC_STOCK_ADJUST_HD ON (IC_STOCK_ADJUST_DT.DOC_NO = IC_STOCK_ADJUST_HD.DOC_NO) AND (IC_STOCK_ADJUST_DT.DOC_DATE = IC_STOCK_ADJUST_HD.DOC_DATE)
+WHERE 
+   ic_stock_adjust_hd.melt_no =    '08W11'</t>
+  </si>
+  <si>
+    <t>Stock Issue By Melt No</t>
   </si>
 </sst>
 </file>
@@ -2096,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2503,7 +2565,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="270.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" ht="356.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>105</v>
       </c>
@@ -2545,6 +2607,17 @@
       </c>
       <c r="D40" s="3" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
